--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H2">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="N2">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="O2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="P2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="Q2">
-        <v>50.66543134334753</v>
+        <v>1.173734620199556</v>
       </c>
       <c r="R2">
-        <v>50.66543134334753</v>
+        <v>10.563611581796</v>
       </c>
       <c r="S2">
-        <v>0.2916350009962236</v>
+        <v>0.004733014928051262</v>
       </c>
       <c r="T2">
-        <v>0.2916350009962236</v>
+        <v>0.004733014928051262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H3">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="N3">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="P3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="Q3">
-        <v>63.53535596868126</v>
+        <v>1.415256279767556</v>
       </c>
       <c r="R3">
-        <v>63.53535596868126</v>
+        <v>12.737306517908</v>
       </c>
       <c r="S3">
-        <v>0.3657155008837144</v>
+        <v>0.005706936631058289</v>
       </c>
       <c r="T3">
-        <v>0.3657155008837144</v>
+        <v>0.005706936631058291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,805 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.4857323333333334</v>
+      </c>
+      <c r="H4">
+        <v>1.457197</v>
+      </c>
+      <c r="I4">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="J4">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P4">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q4">
+        <v>0.01419180349377778</v>
+      </c>
+      <c r="R4">
+        <v>0.127726231444</v>
+      </c>
+      <c r="S4">
+        <v>5.72276020797616E-05</v>
+      </c>
+      <c r="T4">
+        <v>5.72276020797616E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.4857323333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.457197</v>
+      </c>
+      <c r="I5">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="J5">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.085553</v>
+      </c>
+      <c r="O5">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P5">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q5">
+        <v>0.01385195277122222</v>
+      </c>
+      <c r="R5">
+        <v>0.124667574941</v>
+      </c>
+      <c r="S5">
+        <v>5.58571742884343E-05</v>
+      </c>
+      <c r="T5">
+        <v>5.585717428843431E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.4857323333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.457197</v>
+      </c>
+      <c r="I6">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="J6">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N6">
+        <v>10.399267</v>
+      </c>
+      <c r="O6">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P6">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q6">
+        <v>1.683753408288778</v>
+      </c>
+      <c r="R6">
+        <v>15.153780674599</v>
+      </c>
+      <c r="S6">
+        <v>0.006789635305494411</v>
+      </c>
+      <c r="T6">
+        <v>0.006789635305494411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.501526</v>
+      </c>
+      <c r="I7">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J7">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.416422666666667</v>
+      </c>
+      <c r="N7">
+        <v>7.249268</v>
+      </c>
+      <c r="O7">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="P7">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="Q7">
+        <v>2.820388931440889</v>
+      </c>
+      <c r="R7">
+        <v>25.383500382968</v>
+      </c>
+      <c r="S7">
+        <v>0.01137305033496475</v>
+      </c>
+      <c r="T7">
+        <v>0.01137305033496475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.501526</v>
+      </c>
+      <c r="I8">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J8">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N8">
+        <v>8.740964</v>
+      </c>
+      <c r="O8">
+        <v>0.3290690586319826</v>
+      </c>
+      <c r="P8">
+        <v>0.3290690586319827</v>
+      </c>
+      <c r="Q8">
+        <v>3.400745856784889</v>
+      </c>
+      <c r="R8">
+        <v>30.606712711064</v>
+      </c>
+      <c r="S8">
+        <v>0.01371330506033364</v>
+      </c>
+      <c r="T8">
+        <v>0.01371330506033365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.501526</v>
+      </c>
+      <c r="I9">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J9">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P9">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q9">
+        <v>0.03410175077244445</v>
+      </c>
+      <c r="R9">
+        <v>0.306915756952</v>
+      </c>
+      <c r="S9">
+        <v>0.000137513278300696</v>
+      </c>
+      <c r="T9">
+        <v>0.000137513278300696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.501526</v>
+      </c>
+      <c r="I10">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J10">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.085553</v>
+      </c>
+      <c r="O10">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P10">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q10">
+        <v>0.03328511709755556</v>
+      </c>
+      <c r="R10">
+        <v>0.299566053878</v>
+      </c>
+      <c r="S10">
+        <v>0.0001342202516595108</v>
+      </c>
+      <c r="T10">
+        <v>0.0001342202516595109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.501526</v>
+      </c>
+      <c r="I11">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J11">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N11">
+        <v>10.399267</v>
+      </c>
+      <c r="O11">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P11">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q11">
+        <v>4.045922642382445</v>
+      </c>
+      <c r="R11">
+        <v>36.413303781442</v>
+      </c>
+      <c r="S11">
+        <v>0.01631494201038475</v>
+      </c>
+      <c r="T11">
+        <v>0.01631494201038475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>22.0937401382349</v>
-      </c>
-      <c r="H4">
-        <v>22.0937401382349</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.69434346734889</v>
-      </c>
-      <c r="N4">
-        <v>2.69434346734889</v>
-      </c>
-      <c r="O4">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="P4">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="Q4">
-        <v>59.52812441075717</v>
-      </c>
-      <c r="R4">
-        <v>59.52812441075717</v>
-      </c>
-      <c r="S4">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="T4">
-        <v>0.342649498120062</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H12">
+        <v>79.065067</v>
+      </c>
+      <c r="I12">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J12">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.416422666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.249268</v>
+      </c>
+      <c r="O12">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="P12">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="Q12">
+        <v>63.68487334677289</v>
+      </c>
+      <c r="R12">
+        <v>573.163860120956</v>
+      </c>
+      <c r="S12">
+        <v>0.2568054576000178</v>
+      </c>
+      <c r="T12">
+        <v>0.2568054576000178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H13">
+        <v>79.065067</v>
+      </c>
+      <c r="I13">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J13">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.740964</v>
+      </c>
+      <c r="O13">
+        <v>0.3290690586319826</v>
+      </c>
+      <c r="P13">
+        <v>0.3290690586319827</v>
+      </c>
+      <c r="Q13">
+        <v>76.78943381162088</v>
+      </c>
+      <c r="R13">
+        <v>691.104904304588</v>
+      </c>
+      <c r="S13">
+        <v>0.3096488169405907</v>
+      </c>
+      <c r="T13">
+        <v>0.3096488169405908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H14">
+        <v>79.065067</v>
+      </c>
+      <c r="I14">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J14">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P14">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q14">
+        <v>0.7700234725204445</v>
+      </c>
+      <c r="R14">
+        <v>6.930211252684001</v>
+      </c>
+      <c r="S14">
+        <v>0.003105073777042974</v>
+      </c>
+      <c r="T14">
+        <v>0.003105073777042974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H15">
+        <v>79.065067</v>
+      </c>
+      <c r="I15">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J15">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.085553</v>
+      </c>
+      <c r="O15">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P15">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q15">
+        <v>0.7515837418945556</v>
+      </c>
+      <c r="R15">
+        <v>6.764253677051</v>
+      </c>
+      <c r="S15">
+        <v>0.003030716661882872</v>
+      </c>
+      <c r="T15">
+        <v>0.003030716661882872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H16">
+        <v>79.065067</v>
+      </c>
+      <c r="I16">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J16">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N16">
+        <v>10.399267</v>
+      </c>
+      <c r="O16">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P16">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q16">
+        <v>91.35763801176545</v>
+      </c>
+      <c r="R16">
+        <v>822.218742105889</v>
+      </c>
+      <c r="S16">
+        <v>0.3683942324438501</v>
+      </c>
+      <c r="T16">
+        <v>0.3683942324438502</v>
       </c>
     </row>
   </sheetData>
